--- a/model/跨境电子商务进口运单模板.xlsx
+++ b/model/跨境电子商务进口运单模板.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\download\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
   <si>
     <t>订单编号</t>
   </si>
@@ -49,12 +54,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>Demo003</t>
-  </si>
-  <si>
-    <t>logistics1234567891</t>
-  </si>
-  <si>
     <t>expressCode</t>
   </si>
   <si>
@@ -73,9 +72,6 @@
     <t>70.123456</t>
   </si>
   <si>
-    <t>logistics1234567892</t>
-  </si>
-  <si>
     <t>20.12345</t>
   </si>
   <si>
@@ -85,47 +81,184 @@
     <t>第一条备注</t>
   </si>
   <si>
-    <t>logistics1234567893</t>
-  </si>
-  <si>
     <t>第二条备注</t>
   </si>
   <si>
-    <t>logistics1234567894</t>
-  </si>
-  <si>
-    <t>logistics1234567895</t>
-  </si>
-  <si>
     <t>第四条备注</t>
   </si>
   <si>
-    <t>logistics1234567896</t>
-  </si>
-  <si>
     <t>第五条备注</t>
   </si>
   <si>
-    <t>logistics1234567897</t>
-  </si>
-  <si>
-    <t>logistics1234567898</t>
-  </si>
-  <si>
-    <t>logistics1234567899</t>
+    <t>order123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>order124</t>
+  </si>
+  <si>
+    <t>order125</t>
+  </si>
+  <si>
+    <t>order126</t>
+  </si>
+  <si>
+    <t>order127</t>
+  </si>
+  <si>
+    <t>order128</t>
+  </si>
+  <si>
+    <t>order129</t>
+  </si>
+  <si>
+    <t>order130</t>
+  </si>
+  <si>
+    <t>order131</t>
+  </si>
+  <si>
+    <r>
+      <t>logistics12345</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>logistics123459</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>logistics123460</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>logistics123461</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>logistics123462</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>logistics123463</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>logistics123464</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>logistics123465</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>logistics123466</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,144 +287,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,182 +326,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -514,261 +350,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -782,65 +382,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -889,7 +451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -924,7 +486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1127,20 +689,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
@@ -1149,7 +712,7 @@
     <col min="7" max="7" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:11">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1184,296 +747,297 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" ht="27">
+      <c r="A2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="27">
+      <c r="A3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" ht="27" spans="1:11">
-      <c r="A3" t="s">
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27">
+      <c r="A4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="K4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:11">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:11">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" ht="27" spans="1:11">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" ht="27">
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:11">
-      <c r="A7" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="27">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27">
+      <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" ht="27" spans="1:11">
-      <c r="A8" t="s">
+      <c r="B8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" ht="27" spans="1:11">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" ht="27">
+      <c r="A9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" ht="27" spans="1:11">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" ht="27">
+      <c r="A10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="1:11">
+      <c r="A11" s="10"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1485,7 +1049,8 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="1:11">
+      <c r="A12" s="10"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1497,7 +1062,8 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="1:11">
+      <c r="A13" s="10"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1509,7 +1075,8 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="1:11">
+      <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1521,7 +1088,8 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="1:11">
+      <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1533,7 +1101,8 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="1:11">
+      <c r="A16" s="10"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1545,7 +1114,8 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="1:11">
+      <c r="A17" s="10"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1557,7 +1127,8 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="1:11">
+      <c r="A18" s="10"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1569,7 +1140,8 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="1:11">
+      <c r="A19" s="10"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1581,7 +1153,8 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="1:11">
+      <c r="A20" s="10"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1593,7 +1166,8 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="1:11">
+      <c r="A21" s="10"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1605,7 +1179,8 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="1:11">
+      <c r="A22" s="10"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1617,7 +1192,8 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="1:11">
+      <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1629,7 +1205,8 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="1:11">
+      <c r="A24" s="10"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1641,7 +1218,8 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="1:11">
+      <c r="A25" s="10"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1653,7 +1231,8 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="1:11">
+      <c r="A26" s="10"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1665,7 +1244,8 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="1:11">
+      <c r="A27" s="10"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1677,7 +1257,8 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="1:11">
+      <c r="A28" s="10"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1689,7 +1270,8 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="1:11">
+      <c r="A29" s="10"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1701,7 +1283,8 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="1:11">
+      <c r="A30" s="10"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1713,7 +1296,8 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="1:11">
+      <c r="A31" s="10"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1725,7 +1309,8 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="1:11">
+      <c r="A32" s="10"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1737,7 +1322,8 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="1:11">
+      <c r="A33" s="10"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1749,7 +1335,8 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="1:11">
+      <c r="A34" s="10"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1762,8 +1349,8 @@
       <c r="K34" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>